--- a/biology/Botanique/Chianti_(DOP)/Chianti_(DOP).xlsx
+++ b/biology/Botanique/Chianti_(DOP)/Chianti_(DOP).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le chianti est un vin rouge italien produit dans la région de Chianti en Toscane et dont l'histoire remonte au XIIIe siècle.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1716, Cosme III de Médicis définit les territoires où l'appellation Chianti peut être utilisée, premier exemple de protection des appellations d'origine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1716, Cosme III de Médicis définit les territoires où l'appellation Chianti peut être utilisée, premier exemple de protection des appellations d'origine.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Chianti (à prononcer : Kian'ti) est un vin rouge produit en Toscane dans la région du chianti, dans des zones strictement délimitées des provinces de Florence, de Sienne, d'Arezzo, de Pistoia, de Pise et de Prato.
 			Vignoble de la région du chianti
@@ -589,7 +605,9 @@
           <t>Bouteille</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Traditionnellement, il était facile à reconnaître grâce à sa bouteille typique au col allongé et à la base ventrue entourée d'un panier d'osier : le fiasco.
 Depuis plusieurs années, un savant marketing en a fait un vin réputé et de meilleure qualité que le vino da tavola local.
@@ -621,7 +639,9 @@
           <t>Appellations DOP</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Depuis le 1er août 2009, dix vins de l'aire géographique Chianti sont protégés par le label de qualité Denominazione di origine protetta (DOP).
 Chianti suivie ou non de Colli Fiorentini
